--- a/input/data/original/acad.xlsx
+++ b/input/data/original/acad.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\gestion-informacion-dip\input\data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4851D09-85D2-4706-AE06-8C72AB6A7010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8130" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BBDD" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="764">
   <si>
     <t>REPARTICION</t>
   </si>
@@ -2317,12 +2318,15 @@
   </si>
   <si>
     <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>Nota</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
@@ -2741,11 +2745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2814,7 +2818,9 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
@@ -13051,8 +13057,8 @@
       <c r="P214" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P214"/>
-  <sortState ref="A2:BV214">
+  <autoFilter ref="A1:P214" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BV214">
     <sortCondition ref="D2:D214"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13060,10 +13066,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
